--- a/book_list.xlsx
+++ b/book_list.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="小说" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="801">
   <si>
     <t>序号</t>
   </si>
@@ -150,6 +150,2274 @@
   </si>
   <si>
     <t>https://book.douban.com/subject/1200840/</t>
+  </si>
+  <si>
+    <t>我的天才女友</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26878124/</t>
+  </si>
+  <si>
+    <t>卡拉马佐夫兄弟</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1856494/</t>
+  </si>
+  <si>
+    <t>刀锋</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2035162/</t>
+  </si>
+  <si>
+    <t>醒来的女性</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27042344/</t>
+  </si>
+  <si>
+    <t>局外人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4908885/</t>
+  </si>
+  <si>
+    <t>步履不停</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26963321/</t>
+  </si>
+  <si>
+    <t>你一生的故事</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26295448/</t>
+  </si>
+  <si>
+    <t>戴上手套擦泪</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27006492/</t>
+  </si>
+  <si>
+    <t>双峰: 神秘史</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26981446/</t>
+  </si>
+  <si>
+    <t>恋情的终结</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26279019/</t>
+  </si>
+  <si>
+    <t>人生的枷锁</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2035171/</t>
+  </si>
+  <si>
+    <t>不能承受的生命之轻</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1017143/</t>
+  </si>
+  <si>
+    <t>贝伦与露西恩</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27035185/</t>
+  </si>
+  <si>
+    <t>欢迎来到猴子馆</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27068817/</t>
+  </si>
+  <si>
+    <t>白鹿原</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1085799/</t>
+  </si>
+  <si>
+    <t>繁花</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/22714154/</t>
+  </si>
+  <si>
+    <t>动物农场</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2035179/</t>
+  </si>
+  <si>
+    <t>七根凶简</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27035382/</t>
+  </si>
+  <si>
+    <t>毒木圣经</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26630480/</t>
+  </si>
+  <si>
+    <t>北鸢</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26821461/</t>
+  </si>
+  <si>
+    <t>吃鲷鱼让我打嗝</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26893260/</t>
+  </si>
+  <si>
+    <t>一个叫欧维的男人决定去死</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26672693/</t>
+  </si>
+  <si>
+    <t>我脑袋里的怪东西</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26701959/</t>
+  </si>
+  <si>
+    <t>无声告白</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26382433/</t>
+  </si>
+  <si>
+    <t>悉达多</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3406401/</t>
+  </si>
+  <si>
+    <t>黄金时代</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1089243/</t>
+  </si>
+  <si>
+    <t>肖申克的救赎</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1829226/</t>
+  </si>
+  <si>
+    <t>台北人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5337248/</t>
+  </si>
+  <si>
+    <t>岛上书店</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26340138/</t>
+  </si>
+  <si>
+    <t>牧羊少年奇幻之旅</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3608208/</t>
+  </si>
+  <si>
+    <t>飘</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1068920/</t>
+  </si>
+  <si>
+    <t>树上的男爵</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/6789605/</t>
+  </si>
+  <si>
+    <t>美丽新世界</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1321789/</t>
+  </si>
+  <si>
+    <t>悟空传</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1003000/</t>
+  </si>
+  <si>
+    <t>灿烂千阳</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2143732/</t>
+  </si>
+  <si>
+    <t>倾城之恋</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1090043/</t>
+  </si>
+  <si>
+    <t>不属于我们的世纪</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26831234/</t>
+  </si>
+  <si>
+    <t>博尔赫斯小说集</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1440972/</t>
+  </si>
+  <si>
+    <t>玫瑰的名字</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3836566/</t>
+  </si>
+  <si>
+    <t>情人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1400705/</t>
+  </si>
+  <si>
+    <t>源泉</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1431870/</t>
+  </si>
+  <si>
+    <t>金色梦乡</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5038409/</t>
+  </si>
+  <si>
+    <t>幽灵</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27042830/</t>
+  </si>
+  <si>
+    <t>2666</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/6800379/</t>
+  </si>
+  <si>
+    <t>一句顶一万句</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3633461/</t>
+  </si>
+  <si>
+    <t>被占的宅子</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26703649/</t>
+  </si>
+  <si>
+    <t>一个人的朝圣</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/24934182/</t>
+  </si>
+  <si>
+    <t>挪威的森林</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1046265/</t>
+  </si>
+  <si>
+    <t>心是孤独的猎手</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1424741/</t>
+  </si>
+  <si>
+    <t>边城</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1057244/</t>
+  </si>
+  <si>
+    <t>强风吹拂</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26210487/</t>
+  </si>
+  <si>
+    <t>永恒的边缘</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27025715/</t>
+  </si>
+  <si>
+    <t>没有你，什么都不甜蜜</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27020528/</t>
+  </si>
+  <si>
+    <t>佛罗伦萨的神女</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26900889/</t>
+  </si>
+  <si>
+    <t>1Q84 BOOK 1</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4742918/</t>
+  </si>
+  <si>
+    <t>时光倒流的女孩</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26998358/</t>
+  </si>
+  <si>
+    <t>海风中失落的血色馈赠</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26357614/</t>
+  </si>
+  <si>
+    <t>清明上河图密码</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26265745/</t>
+  </si>
+  <si>
+    <t>查特莱夫人的情人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1039840/</t>
+  </si>
+  <si>
+    <t>S.</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26356515/</t>
+  </si>
+  <si>
+    <t>过于喧嚣的孤独</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/6781794/</t>
+  </si>
+  <si>
+    <t>我遇见了人类</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26811138/</t>
+  </si>
+  <si>
+    <t>许三观卖血记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1029791/</t>
+  </si>
+  <si>
+    <t>当我们谈论爱情时我们在谈论什么</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4010969/</t>
+  </si>
+  <si>
+    <t>失明症漫记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/20428302/</t>
+  </si>
+  <si>
+    <t>陆犯焉识</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/6880158/</t>
+  </si>
+  <si>
+    <t>喜宝</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2022979/</t>
+  </si>
+  <si>
+    <t>生活与命运</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26394018/</t>
+  </si>
+  <si>
+    <t>北方大道</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27064644/</t>
+  </si>
+  <si>
+    <t>一桩事先张扬的凶杀案</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/24382569/</t>
+  </si>
+  <si>
+    <t>十一种孤独</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4105446/</t>
+  </si>
+  <si>
+    <t>永恒的终结</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25829693/</t>
+  </si>
+  <si>
+    <t>穆斯林的葬礼</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1082334/</t>
+  </si>
+  <si>
+    <t>一个陌生女人的来信</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2154960/</t>
+  </si>
+  <si>
+    <t>毛姆短篇小说精选集</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10774752/</t>
+  </si>
+  <si>
+    <t>看不见的城市</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1863930/</t>
+  </si>
+  <si>
+    <t>面纱</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10560798/</t>
+  </si>
+  <si>
+    <t>偷影子的人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10763902/</t>
+  </si>
+  <si>
+    <t>棋王</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1020961/</t>
+  </si>
+  <si>
+    <t>钓鱼的男孩</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26837288/</t>
+  </si>
+  <si>
+    <t>有匪1</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26886310/</t>
+  </si>
+  <si>
+    <t>世界尽头与冷酷仙境</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1291809/</t>
+  </si>
+  <si>
+    <t>了不起的盖茨比</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1008988/</t>
+  </si>
+  <si>
+    <t>爱情和其他魔鬼</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26451351/</t>
+  </si>
+  <si>
+    <t>鳄鱼街</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4203630/</t>
+  </si>
+  <si>
+    <t>小说课</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26951584/</t>
+  </si>
+  <si>
+    <t>三国演义（全二册）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1019568/</t>
+  </si>
+  <si>
+    <t>雪人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26729776/</t>
+  </si>
+  <si>
+    <t>海边的卡夫卡</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1059419/</t>
+  </si>
+  <si>
+    <t>献给阿尔吉侬的花束</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1442869/</t>
+  </si>
+  <si>
+    <t>道连·葛雷的画像</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1856025/</t>
+  </si>
+  <si>
+    <t>最初的爱情 最后的仪式</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4011440/</t>
+  </si>
+  <si>
+    <t>一九八四·动物农场</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1082387/</t>
+  </si>
+  <si>
+    <t>情书</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1080370/</t>
+  </si>
+  <si>
+    <t>美国众神</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1939182/</t>
+  </si>
+  <si>
+    <t>摩尔人的最后叹息</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27003600/</t>
+  </si>
+  <si>
+    <t>火花</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26969582/</t>
+  </si>
+  <si>
+    <t>荆棘鸟</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1086249/</t>
+  </si>
+  <si>
+    <t>德米安</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3578470/</t>
+  </si>
+  <si>
+    <t>冰与火之歌（卷一）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1336330/</t>
+  </si>
+  <si>
+    <t>芳华</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27010212/</t>
+  </si>
+  <si>
+    <t>孽子</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1076654/</t>
+  </si>
+  <si>
+    <t>焚舟纪</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/6797396/</t>
+  </si>
+  <si>
+    <t>漫长的中场休息</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26890281/</t>
+  </si>
+  <si>
+    <t>受戒</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1760432/</t>
+  </si>
+  <si>
+    <t>追忆似水年华（上下册）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1092168/</t>
+  </si>
+  <si>
+    <t>半生缘</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1963684/</t>
+  </si>
+  <si>
+    <t>香水</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1292416/</t>
+  </si>
+  <si>
+    <t>火星救援</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26586492/</t>
+  </si>
+  <si>
+    <t>红楼梦</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1007305/</t>
+  </si>
+  <si>
+    <t>夜色人生</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26787935/</t>
+  </si>
+  <si>
+    <t>螺旋之谜</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27062629/</t>
+  </si>
+  <si>
+    <t>阿城精选集</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1830445/</t>
+  </si>
+  <si>
+    <t>红玫瑰与白玫瑰</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1014278/</t>
+  </si>
+  <si>
+    <t>项塔兰</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3673771/</t>
+  </si>
+  <si>
+    <t>人间失格</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4011670/</t>
+  </si>
+  <si>
+    <t>教父</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1092335/</t>
+  </si>
+  <si>
+    <t>生死桥</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1731521/</t>
+  </si>
+  <si>
+    <t>使女的故事</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3056877/</t>
+  </si>
+  <si>
+    <t>清明上河图密码4</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27025036/</t>
+  </si>
+  <si>
+    <t>基督山伯爵</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1085860/</t>
+  </si>
+  <si>
+    <t>来自新世界 （上下）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25752955/</t>
+  </si>
+  <si>
+    <t>呼兰河传</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1060852/</t>
+  </si>
+  <si>
+    <t>如果在冬夜，一个旅人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2136484/</t>
+  </si>
+  <si>
+    <t>没有人给他写信的上校</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/20392523/</t>
+  </si>
+  <si>
+    <t>午夜之子</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26607924/</t>
+  </si>
+  <si>
+    <t>洛丽塔</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1465324/</t>
+  </si>
+  <si>
+    <t>人鼠之间</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26598807/</t>
+  </si>
+  <si>
+    <t>阿特拉斯耸耸肩（上下）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2302217/</t>
+  </si>
+  <si>
+    <t>不畅销小说写作指南</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27054017/</t>
+  </si>
+  <si>
+    <t>金阁寺</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3391248/</t>
+  </si>
+  <si>
+    <t>卡尔维诺文集（第三卷）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1066165/</t>
+  </si>
+  <si>
+    <t>七杀简史</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26993666/</t>
+  </si>
+  <si>
+    <t>哈扎尔辞典（阳本）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/11528350/</t>
+  </si>
+  <si>
+    <t>金瓶梅</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1456692/</t>
+  </si>
+  <si>
+    <t>达·芬奇密码</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1040771/</t>
+  </si>
+  <si>
+    <t>红豆生南国</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27063109/</t>
+  </si>
+  <si>
+    <t>背对世界</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26945142/</t>
+  </si>
+  <si>
+    <t>城南旧事</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1254588/</t>
+  </si>
+  <si>
+    <t>平原上的摩西</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26803179/</t>
+  </si>
+  <si>
+    <t>额尔古纳河右岸</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3311253/</t>
+  </si>
+  <si>
+    <t>简爱（英文全本）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1141406/</t>
+  </si>
+  <si>
+    <t>纽约客</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5337243/</t>
+  </si>
+  <si>
+    <t>屡次想起的人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27070201/</t>
+  </si>
+  <si>
+    <t>此间的少年</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1020459/</t>
+  </si>
+  <si>
+    <t>生活在别处</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1013225/</t>
+  </si>
+  <si>
+    <t>小径分岔的花园</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25796120/</t>
+  </si>
+  <si>
+    <t>长恨歌</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1082349/</t>
+  </si>
+  <si>
+    <t>所有我们看不见的光</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26431326/</t>
+  </si>
+  <si>
+    <t>时间旅行者的妻子</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2056749/</t>
+  </si>
+  <si>
+    <t>逃离</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3831788/</t>
+  </si>
+  <si>
+    <t>尘埃落定</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1080309/</t>
+  </si>
+  <si>
+    <t>金锁记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3017857/</t>
+  </si>
+  <si>
+    <t>麦田里的守望者</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1082518/</t>
+  </si>
+  <si>
+    <t>苍老的指甲和宵遁的猫</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26997067/</t>
+  </si>
+  <si>
+    <t>木麻黄树</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10473355/</t>
+  </si>
+  <si>
+    <t>小说药丸</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26819479/</t>
+  </si>
+  <si>
+    <t>呼啸山庄</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1119522/</t>
+  </si>
+  <si>
+    <t>24个比利</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26371317/</t>
+  </si>
+  <si>
+    <t>布鲁克林有棵树</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3826899/</t>
+  </si>
+  <si>
+    <t>盲目的向日葵</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27004926/</t>
+  </si>
+  <si>
+    <t>地下铁道</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26984949/</t>
+  </si>
+  <si>
+    <t>罗曼蒂克消亡史</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26931507/</t>
+  </si>
+  <si>
+    <t>咖啡未冷前</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26998070/</t>
+  </si>
+  <si>
+    <t>红拂夜奔</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1418686/</t>
+  </si>
+  <si>
+    <t>遥远的救世主</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1322455/</t>
+  </si>
+  <si>
+    <t>狼图腾</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1022060/</t>
+  </si>
+  <si>
+    <t>遥远的星辰</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25985982/</t>
+  </si>
+  <si>
+    <t>怒</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26760976/</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10569619/</t>
+  </si>
+  <si>
+    <t>小说机杼</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26394876/</t>
+  </si>
+  <si>
+    <t>质数的孤独</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5958726/</t>
+  </si>
+  <si>
+    <t>都柏林人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4908872/</t>
+  </si>
+  <si>
+    <t>大江东去（共三部）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3432304/</t>
+  </si>
+  <si>
+    <t>当尼采哭泣</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5940553/</t>
+  </si>
+  <si>
+    <t>刺猬的优雅</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3899039/</t>
+  </si>
+  <si>
+    <t>时间的针脚</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10512236/</t>
+  </si>
+  <si>
+    <t>欢愉</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26939182/</t>
+  </si>
+  <si>
+    <t>夜莺</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26905360/</t>
+  </si>
+  <si>
+    <t>万火归一</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3769738/</t>
+  </si>
+  <si>
+    <t>所谓好玩的事，我再也不做了</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26945641/</t>
+  </si>
+  <si>
+    <t>爱德华·巴纳德的堕落</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26840830/</t>
+  </si>
+  <si>
+    <t>猎豹</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26892080/</t>
+  </si>
+  <si>
+    <t>人民的名义</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26952485/</t>
+  </si>
+  <si>
+    <t>驻马店伤心故事集</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26969002/</t>
+  </si>
+  <si>
+    <t>不朽</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1060117/</t>
+  </si>
+  <si>
+    <t>没有色彩的多崎作和他的巡礼之年</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25733470/</t>
+  </si>
+  <si>
+    <t>1Q84 BOOK 2</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4885241/</t>
+  </si>
+  <si>
+    <t>动物凶猛</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1143694/</t>
+  </si>
+  <si>
+    <t>地球上最后的夜晚</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/20501761/</t>
+  </si>
+  <si>
+    <t>肠子</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5920385/</t>
+  </si>
+  <si>
+    <t>荒原狼</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3131626/</t>
+  </si>
+  <si>
+    <t>大师和玛格丽特</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1077492/</t>
+  </si>
+  <si>
+    <t>群山回唱</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/24845582/</t>
+  </si>
+  <si>
+    <t>初夜</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27054867/</t>
+  </si>
+  <si>
+    <t>华氏451</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1321790/</t>
+  </si>
+  <si>
+    <t>白夜行</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3259440/</t>
+  </si>
+  <si>
+    <t>罪与罚</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1022632/</t>
+  </si>
+  <si>
+    <t>望春风</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26757657/</t>
+  </si>
+  <si>
+    <t>请以你的名字呼唤我</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/11535042/</t>
+  </si>
+  <si>
+    <t>蝇王</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1872158/</t>
+  </si>
+  <si>
+    <t>纳尔齐斯与歌尔德蒙</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2165063/</t>
+  </si>
+  <si>
+    <t>没有个性的人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1017334/</t>
+  </si>
+  <si>
+    <t>杜拉拉升职记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2256039/</t>
+  </si>
+  <si>
+    <t>神经漫游者</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/24107596/</t>
+  </si>
+  <si>
+    <t>蒙着眼睛的旅行者</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26766562/</t>
+  </si>
+  <si>
+    <t>明镜之书</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27031877/</t>
+  </si>
+  <si>
+    <t>四世同堂</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3183775/</t>
+  </si>
+  <si>
+    <t>世上最美的溺水者</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26628811/</t>
+  </si>
+  <si>
+    <t>三体Ⅲ</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5363767/</t>
+  </si>
+  <si>
+    <t>沉睡的人鱼之家</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27028847/</t>
+  </si>
+  <si>
+    <t>宇宙奇趣全集</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5446490/</t>
+  </si>
+  <si>
+    <t>失物之书</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3608235/</t>
+  </si>
+  <si>
+    <t>喧哗与骚动</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1052074/</t>
+  </si>
+  <si>
+    <t>1988：我想和这个世界谈谈</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5275059/</t>
+  </si>
+  <si>
+    <t>小团圆</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3616310/</t>
+  </si>
+  <si>
+    <t>烛烬</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26580084/</t>
+  </si>
+  <si>
+    <t>傲慢与偏见</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1083428/</t>
+  </si>
+  <si>
+    <t>时间之间</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26756030/</t>
+  </si>
+  <si>
+    <t>没有悲伤的城市</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3989541/</t>
+  </si>
+  <si>
+    <t>群魔</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1437488/</t>
+  </si>
+  <si>
+    <t>三体Ⅱ</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3066477/</t>
+  </si>
+  <si>
+    <t>棋王.樹王.孩子王</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3013624/</t>
+  </si>
+  <si>
+    <t>直到那一天</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26910597/</t>
+  </si>
+  <si>
+    <t>嫌疑人X的献身</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3211779/</t>
+  </si>
+  <si>
+    <t>白痴</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1859108/</t>
+  </si>
+  <si>
+    <t>假如岁月足够长</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26959623/</t>
+  </si>
+  <si>
+    <t>神们自己</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26264967/</t>
+  </si>
+  <si>
+    <t>地下室手记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10759466/</t>
+  </si>
+  <si>
+    <t>到灯塔去</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3402999/</t>
+  </si>
+  <si>
+    <t>山月记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/20473505/</t>
+  </si>
+  <si>
+    <t>春宵苦短，少女前進吧！</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3920144/</t>
+  </si>
+  <si>
+    <t>呼吸课</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26936410/</t>
+  </si>
+  <si>
+    <t>爱与黑暗的故事</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2245449/</t>
+  </si>
+  <si>
+    <t>哈利·波特与魔法石</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1041007/</t>
+  </si>
+  <si>
+    <t>无根之木</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26956486/</t>
+  </si>
+  <si>
+    <t>长安十二时辰</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26931701/</t>
+  </si>
+  <si>
+    <t>春雪</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3987362/</t>
+  </si>
+  <si>
+    <t>天使望故乡</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3888110/</t>
+  </si>
+  <si>
+    <t>儿童法案</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26878908/</t>
+  </si>
+  <si>
+    <t>达摩流浪者</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3151990/</t>
+  </si>
+  <si>
+    <t>万物的签名</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26300508/</t>
+  </si>
+  <si>
+    <t>魔戒</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/21979017/</t>
+  </si>
+  <si>
+    <t>出埃及记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3228779/</t>
+  </si>
+  <si>
+    <t>日瓦戈医生</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1469878/</t>
+  </si>
+  <si>
+    <t>索拉里斯星</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1440243/</t>
+  </si>
+  <si>
+    <t>奥丽芙·基特里奇</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/6746290/</t>
+  </si>
+  <si>
+    <t>橘子不是唯一的水果</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4882159/</t>
+  </si>
+  <si>
+    <t>无人生还</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3006581/</t>
+  </si>
+  <si>
+    <t>Me Before You</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10432334/</t>
+  </si>
+  <si>
+    <t>象棋的故事</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2158684/</t>
+  </si>
+  <si>
+    <t>河流之声</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26907173/</t>
+  </si>
+  <si>
+    <t>玻璃球游戏</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2165076/</t>
+  </si>
+  <si>
+    <t>芒果街上的小屋</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1794620/</t>
+  </si>
+  <si>
+    <t>死缓</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26640439/</t>
+  </si>
+  <si>
+    <t>摩天楼</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26819481/</t>
+  </si>
+  <si>
+    <t>盗墓笔记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1948901/</t>
+  </si>
+  <si>
+    <t>米格尔街</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/21346008/</t>
+  </si>
+  <si>
+    <t>软件体的生命周期</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26295450/</t>
+  </si>
+  <si>
+    <t>大教堂</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3335362/</t>
+  </si>
+  <si>
+    <t>屠夫十字镇</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26765928/</t>
+  </si>
+  <si>
+    <t>长夜难明</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26923390/</t>
+  </si>
+  <si>
+    <t>京华烟云</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1391191/</t>
+  </si>
+  <si>
+    <t>老人与海</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1064275/</t>
+  </si>
+  <si>
+    <t>五号屠场</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3090810/</t>
+  </si>
+  <si>
+    <t>我不知道该如何像正常人那样生活</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26889865/</t>
+  </si>
+  <si>
+    <t>夏洛克是我的名字</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27021974/</t>
+  </si>
+  <si>
+    <t>冰与火之歌</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25826936/</t>
+  </si>
+  <si>
+    <t>寻欢作乐</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10768068/</t>
+  </si>
+  <si>
+    <t>草原动物园</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26956479/</t>
+  </si>
+  <si>
+    <t>维罗妮卡决定去死</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4737325/</t>
+  </si>
+  <si>
+    <t>纯真博物馆</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4154988/</t>
+  </si>
+  <si>
+    <t>精神病患</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26732624/</t>
+  </si>
+  <si>
+    <t>遍地风流</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1393473/</t>
+  </si>
+  <si>
+    <t>在路上</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1917972/</t>
+  </si>
+  <si>
+    <t>麦琪的礼物</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1051193/</t>
+  </si>
+  <si>
+    <t>奇风岁月</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/6016234/</t>
+  </si>
+  <si>
+    <t>精神科的故事：在游泳池</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26787931/</t>
+  </si>
+  <si>
+    <t>一个人的好天气</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2250587/</t>
+  </si>
+  <si>
+    <t>余生皆假期</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25892399/</t>
+  </si>
+  <si>
+    <t>且听风吟</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1039752/</t>
+  </si>
+  <si>
+    <t>天龙八部</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1255625/</t>
+  </si>
+  <si>
+    <t>我的名字叫红</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1851385/</t>
+  </si>
+  <si>
+    <t>虚构集</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3003477/</t>
+  </si>
+  <si>
+    <t>倒悬的地平线</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27081345/</t>
+  </si>
+  <si>
+    <t>恶童日记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3315879/</t>
+  </si>
+  <si>
+    <t>快乐</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26939969/</t>
+  </si>
+  <si>
+    <t>乌克兰拖拉机简史</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/6879215/</t>
+  </si>
+  <si>
+    <t>人·兽·鬼</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1058679/</t>
+  </si>
+  <si>
+    <t>呐喊</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1449351/</t>
+  </si>
+  <si>
+    <t>迷宫中的将军</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25985126/</t>
+  </si>
+  <si>
+    <t>变形记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1213546/</t>
+  </si>
+  <si>
+    <t>鼠疫</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1056023/</t>
+  </si>
+  <si>
+    <t>约翰·克利斯朵夫</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1186392/</t>
+  </si>
+  <si>
+    <t>编舟记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26261735/</t>
+  </si>
+  <si>
+    <t>意外的旅客</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27055171/</t>
+  </si>
+  <si>
+    <t>沧浪之水</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1054917/</t>
+  </si>
+  <si>
+    <t>思家小馆的晚餐</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26864983/</t>
+  </si>
+  <si>
+    <t>不存在的骑士</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/6789551/</t>
+  </si>
+  <si>
+    <t>克罗诺皮奥与法玛的故事</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10764013/</t>
+  </si>
+  <si>
+    <t>克苏鲁神话</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26862626/</t>
+  </si>
+  <si>
+    <t>罗生门</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3136271/</t>
+  </si>
+  <si>
+    <t>阿Q正传</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1088065/</t>
+  </si>
+  <si>
+    <t>小城</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4105439/</t>
+  </si>
+  <si>
+    <t>ZOO</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2297697/</t>
+  </si>
+  <si>
+    <t>二代目归来</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27017782/</t>
+  </si>
+  <si>
+    <t>漫长的告别</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3013903/</t>
+  </si>
+  <si>
+    <t>如何阅读一本小说</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26305561/</t>
+  </si>
+  <si>
+    <t>猫城记</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3345595/</t>
+  </si>
+  <si>
+    <t>洗澡</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1078250/</t>
+  </si>
+  <si>
+    <t>少年巴比伦</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3194071/</t>
+  </si>
+  <si>
+    <t>温柔的叹息</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4173403/</t>
+  </si>
+  <si>
+    <t>汪曾祺小说经典</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1444077/</t>
+  </si>
+  <si>
+    <t>俗世奇人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3389984/</t>
+  </si>
+  <si>
+    <t>铁皮鼓</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1849791/</t>
+  </si>
+  <si>
+    <t>我是个年轻人 我心情不太好</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/10565151/</t>
+  </si>
+  <si>
+    <t>嗨，好久不见</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26882320/</t>
+  </si>
+  <si>
+    <t>小姨多鹤</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3012517/</t>
+  </si>
+  <si>
+    <t>摆渡人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26356948/</t>
+  </si>
+  <si>
+    <t>九故事</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2161892/</t>
+  </si>
+  <si>
+    <t>采桑子</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3448867/</t>
+  </si>
+  <si>
+    <t>青铜时代</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1085883/</t>
+  </si>
+  <si>
+    <t>如何让女人免于心碎</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27027055/</t>
+  </si>
+  <si>
+    <t>人生</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3803820/</t>
+  </si>
+  <si>
+    <t>沙之书</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25796049/</t>
+  </si>
+  <si>
+    <t>冷血</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4245064/</t>
+  </si>
+  <si>
+    <t>少数派报告</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/24715669/</t>
+  </si>
+  <si>
+    <t>佩德罗·巴拉莫</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2295912/</t>
+  </si>
+  <si>
+    <t>慈悲</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26669243/</t>
+  </si>
+  <si>
+    <t>半落</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26865025/</t>
+  </si>
+  <si>
+    <t>大裂</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26935435/</t>
+  </si>
+  <si>
+    <t>赴宴之前</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27054027/</t>
+  </si>
+  <si>
+    <t>我们</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1434071/</t>
+  </si>
+  <si>
+    <t>突然，响起一阵敲门声</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25724491/</t>
+  </si>
+  <si>
+    <t>偷书贼</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2180619/</t>
+  </si>
+  <si>
+    <t>伪装成独白的爱情</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26577690/</t>
+  </si>
+  <si>
+    <t>战争与和平（全四册）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1013469/</t>
+  </si>
+  <si>
+    <t>何以笙箫默</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1461903/</t>
+  </si>
+  <si>
+    <t>角儿</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27081293/</t>
+  </si>
+  <si>
+    <t>卡夫卡小说全集（全三册）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1081422/</t>
+  </si>
+  <si>
+    <t>梦中的欢快葬礼和十二个异乡故事</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26276924/</t>
+  </si>
+  <si>
+    <t>三体</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2567698/</t>
+  </si>
+  <si>
+    <t>我们在此相遇</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3669671/</t>
+  </si>
+  <si>
+    <t>困扰种种</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26823134/</t>
+  </si>
+  <si>
+    <t>管家</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26952226/</t>
+  </si>
+  <si>
+    <t>加缪全集 （小说卷）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4120475/</t>
+  </si>
+  <si>
+    <t>直捣蜂窝的女孩</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5993310/</t>
+  </si>
+  <si>
+    <t>兄弟（上）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1401425/</t>
+  </si>
+  <si>
+    <t>那个不为人知的故事</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26680113/</t>
+  </si>
+  <si>
+    <t>消失的爱人</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/24541883/</t>
+  </si>
+  <si>
+    <t>岛</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3673651/</t>
+  </si>
+  <si>
+    <t>奇迹</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26735085/</t>
+  </si>
+  <si>
+    <t>唐人小说</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2257283/</t>
+  </si>
+  <si>
+    <t>发条橙</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/6097966/</t>
+  </si>
+  <si>
+    <t>她是女子，我也是女子</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1458164/</t>
+  </si>
+  <si>
+    <t>我的奋斗1</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26682066/</t>
+  </si>
+  <si>
+    <t>查令十字街84号</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1316648/</t>
+  </si>
+  <si>
+    <t>魔山</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2050779/</t>
+  </si>
+  <si>
+    <t>城堡</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2036561/</t>
+  </si>
+  <si>
+    <t>华胥引（全二册）</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5916880/</t>
+  </si>
+  <si>
+    <t>走出非洲</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/20266046/</t>
+  </si>
+  <si>
+    <t>云图</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4202422/</t>
+  </si>
+  <si>
+    <t>大师的盛宴</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/11511232/</t>
+  </si>
+  <si>
+    <t>柑橘与柠檬啊</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3594151/</t>
+  </si>
+  <si>
+    <t>细雪</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/2160230/</t>
+  </si>
+  <si>
+    <t>玛格丽特小镇</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26787941/</t>
+  </si>
+  <si>
+    <t>有顶天家族</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/20473089/</t>
+  </si>
+  <si>
+    <t>仿生人会梦见电子羊吗？</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/24715686/</t>
+  </si>
+  <si>
+    <t>虔诚的回忆</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26451389/</t>
+  </si>
+  <si>
+    <t>霸王别姬 青蛇</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1018577/</t>
+  </si>
+  <si>
+    <t>鬼吹灯之精绝古城</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1882933/</t>
+  </si>
+  <si>
+    <t>银河英雄传说</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1418999/</t>
+  </si>
+  <si>
+    <t>族长的秋天</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25779593/</t>
+  </si>
+  <si>
+    <t>妻妾成群</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1025753/</t>
+  </si>
+  <si>
+    <t>革命之路</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3640067/</t>
+  </si>
+  <si>
+    <t>圣诞忆旧集</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3326892/</t>
+  </si>
+  <si>
+    <t>三生三世 十里桃花</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3426869/</t>
+  </si>
+  <si>
+    <t>雷蒙德·卡佛短篇小说自选集</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3926717/</t>
   </si>
 </sst>
 </file>
@@ -485,7 +2753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +2789,7 @@
         <v>8.6</v>
       </c>
       <c r="D2" t="n">
-        <v>287049</v>
+        <v>287104</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -538,7 +2806,7 @@
         <v>8.9</v>
       </c>
       <c r="D3" t="n">
-        <v>37937</v>
+        <v>37945</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -555,7 +2823,7 @@
         <v>7.9</v>
       </c>
       <c r="D4" t="n">
-        <v>22552</v>
+        <v>22553</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -572,7 +2840,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>18842</v>
+        <v>18879</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -589,7 +2857,7 @@
         <v>8.9</v>
       </c>
       <c r="D6" t="n">
-        <v>317256</v>
+        <v>317297</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -606,7 +2874,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>133805</v>
+        <v>133844</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -623,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>74040</v>
+        <v>74053</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -640,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>7325</v>
+        <v>7329</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -657,7 +2925,7 @@
         <v>8.5</v>
       </c>
       <c r="D10" t="n">
-        <v>2925</v>
+        <v>2930</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -674,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -691,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>80085</v>
+        <v>80107</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -708,7 +2976,7 @@
         <v>8.9</v>
       </c>
       <c r="D13" t="n">
-        <v>11879</v>
+        <v>11880</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -725,7 +2993,7 @@
         <v>9.1</v>
       </c>
       <c r="D14" t="n">
-        <v>148410</v>
+        <v>148439</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -742,7 +3010,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>48053</v>
+        <v>48071</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -759,7 +3027,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>20059</v>
+        <v>20064</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
@@ -776,7 +3044,7 @@
         <v>8.9</v>
       </c>
       <c r="D17" t="n">
-        <v>200969</v>
+        <v>200984</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -793,7 +3061,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>16651</v>
+        <v>16659</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
@@ -827,7 +3095,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>7720</v>
+        <v>7725</v>
       </c>
       <c r="E20" t="s">
         <v>42</v>
@@ -844,10 +3112,6436 @@
         <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>109275</v>
+        <v>109285</v>
       </c>
       <c r="E21" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10348</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8191</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>30131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1501</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8550</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11725</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1702</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>703</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5786</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13068</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>141031</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>257</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>563</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>47476</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11078</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>35714</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2631</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1690</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6993</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12338</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2788</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>53481</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14213</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>63073</v>
+      </c>
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>41210</v>
+      </c>
+      <c r="E48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>15651</v>
+      </c>
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>84102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>59971</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>83517</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>12041</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12147</v>
+      </c>
+      <c r="E54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>63871</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>57180</v>
+      </c>
+      <c r="E56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>92377</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1709</v>
+      </c>
+      <c r="E58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7921</v>
+      </c>
+      <c r="E59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6432</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>90257</v>
+      </c>
+      <c r="E61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5360</v>
+      </c>
+      <c r="E62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>9</v>
+      </c>
+      <c r="D63" t="n">
+        <v>13242</v>
+      </c>
+      <c r="E63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2077</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2465</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>20474</v>
+      </c>
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>911</v>
+      </c>
+      <c r="E67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>34554</v>
+      </c>
+      <c r="E68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>196251</v>
+      </c>
+      <c r="E69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>23635</v>
+      </c>
+      <c r="E70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>75922</v>
+      </c>
+      <c r="E71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>9</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3663</v>
+      </c>
+      <c r="E72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4849</v>
+      </c>
+      <c r="E73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>389</v>
+      </c>
+      <c r="E74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>943</v>
+      </c>
+      <c r="E75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>81485</v>
+      </c>
+      <c r="E76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2034</v>
+      </c>
+      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3328</v>
+      </c>
+      <c r="E78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8956</v>
+      </c>
+      <c r="E79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5957</v>
+      </c>
+      <c r="E80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3593</v>
+      </c>
+      <c r="E81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7382</v>
+      </c>
+      <c r="E82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>911</v>
+      </c>
+      <c r="E83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D84" t="n">
+        <v>68978</v>
+      </c>
+      <c r="E84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>33972</v>
+      </c>
+      <c r="E85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4128</v>
+      </c>
+      <c r="E86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>22954</v>
+      </c>
+      <c r="E87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>46206</v>
+      </c>
+      <c r="E88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>871</v>
+      </c>
+      <c r="E89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1755</v>
+      </c>
+      <c r="E90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D91" t="n">
+        <v>12922</v>
+      </c>
+      <c r="E91" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D92" t="n">
+        <v>15099</v>
+      </c>
+      <c r="E92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>9</v>
+      </c>
+      <c r="D93" t="n">
+        <v>13855</v>
+      </c>
+      <c r="E93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D94" t="n">
+        <v>75877</v>
+      </c>
+      <c r="E94" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D95" t="n">
+        <v>48137</v>
+      </c>
+      <c r="E95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5618</v>
+      </c>
+      <c r="E96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D97" t="n">
+        <v>27437</v>
+      </c>
+      <c r="E97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15502</v>
+      </c>
+      <c r="E98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D99" t="n">
+        <v>57216</v>
+      </c>
+      <c r="E99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D100" t="n">
+        <v>15071</v>
+      </c>
+      <c r="E100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2287</v>
+      </c>
+      <c r="E101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5248</v>
+      </c>
+      <c r="E102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>26674</v>
+      </c>
+      <c r="E103" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D104" t="n">
+        <v>40375</v>
+      </c>
+      <c r="E104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3828</v>
+      </c>
+      <c r="E105" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1319</v>
+      </c>
+      <c r="E106" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2863</v>
+      </c>
+      <c r="E107" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D108" t="n">
+        <v>57695</v>
+      </c>
+      <c r="E108" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10740</v>
+      </c>
+      <c r="E109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>64380</v>
+      </c>
+      <c r="E110" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5743</v>
+      </c>
+      <c r="E111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7827</v>
+      </c>
+      <c r="E112" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>26888</v>
+      </c>
+      <c r="E113" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>25436</v>
+      </c>
+      <c r="E114" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>50304</v>
+      </c>
+      <c r="E115" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" t="n">
+        <v>8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7752</v>
+      </c>
+      <c r="E116" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>392</v>
+      </c>
+      <c r="E117" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E118" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>32734</v>
+      </c>
+      <c r="E119" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7529</v>
+      </c>
+      <c r="E120" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D121" t="n">
+        <v>23931</v>
+      </c>
+      <c r="E121" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>18022</v>
+      </c>
+      <c r="E122" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7936</v>
+      </c>
+      <c r="E123" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3415</v>
+      </c>
+      <c r="E124" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2660</v>
+      </c>
+      <c r="E125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5220</v>
+      </c>
+      <c r="E126" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2426</v>
+      </c>
+      <c r="E127" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>38629</v>
+      </c>
+      <c r="E128" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>28240</v>
+      </c>
+      <c r="E129" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9355</v>
+      </c>
+      <c r="E130" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>132088</v>
+      </c>
+      <c r="E131" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2281</v>
+      </c>
+      <c r="E132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>166</v>
+      </c>
+      <c r="E133" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4397</v>
+      </c>
+      <c r="E134" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>41975</v>
+      </c>
+      <c r="E135" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3977</v>
+      </c>
+      <c r="E136" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>51580</v>
+      </c>
+      <c r="E137" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>17712</v>
+      </c>
+      <c r="E138" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4017</v>
+      </c>
+      <c r="E139" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E140" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1534</v>
+      </c>
+      <c r="E141" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>53965</v>
+      </c>
+      <c r="E142" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4125</v>
+      </c>
+      <c r="E143" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>19366</v>
+      </c>
+      <c r="E144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D145" t="n">
+        <v>7997</v>
+      </c>
+      <c r="E145" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>14689</v>
+      </c>
+      <c r="E146" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1336</v>
+      </c>
+      <c r="E147" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>56699</v>
+      </c>
+      <c r="E148" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2026</v>
+      </c>
+      <c r="E149" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3032</v>
+      </c>
+      <c r="E150" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>303</v>
+      </c>
+      <c r="C151" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>305</v>
+      </c>
+      <c r="E151" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12219</v>
+      </c>
+      <c r="E152" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4110</v>
+      </c>
+      <c r="E153" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>609</v>
+      </c>
+      <c r="E154" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2831</v>
+      </c>
+      <c r="E155" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5014</v>
+      </c>
+      <c r="E156" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>132560</v>
+      </c>
+      <c r="E157" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>588</v>
+      </c>
+      <c r="E158" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159" t="n">
+        <v>8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>696</v>
+      </c>
+      <c r="E159" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>26916</v>
+      </c>
+      <c r="E160" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2773</v>
+      </c>
+      <c r="E161" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7692</v>
+      </c>
+      <c r="E162" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>327</v>
+      </c>
+      <c r="C163" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>112975</v>
+      </c>
+      <c r="E163" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>8706</v>
+      </c>
+      <c r="E164" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>182</v>
+      </c>
+      <c r="E165" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>36428</v>
+      </c>
+      <c r="E166" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D167" t="n">
+        <v>24702</v>
+      </c>
+      <c r="E167" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4741</v>
+      </c>
+      <c r="E168" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>30250</v>
+      </c>
+      <c r="E169" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1959</v>
+      </c>
+      <c r="E170" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>35945</v>
+      </c>
+      <c r="E171" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>7720</v>
+      </c>
+      <c r="E172" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D173" t="n">
+        <v>31538</v>
+      </c>
+      <c r="E173" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>30767</v>
+      </c>
+      <c r="E174" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>53612</v>
+      </c>
+      <c r="E175" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>353</v>
+      </c>
+      <c r="C176" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D176" t="n">
+        <v>177</v>
+      </c>
+      <c r="E176" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2247</v>
+      </c>
+      <c r="E177" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" t="n">
+        <v>8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>803</v>
+      </c>
+      <c r="E178" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D179" t="n">
+        <v>60378</v>
+      </c>
+      <c r="E179" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>361</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>14475</v>
+      </c>
+      <c r="E180" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6433</v>
+      </c>
+      <c r="E181" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D182" t="n">
+        <v>133</v>
+      </c>
+      <c r="E182" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E183" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>7064</v>
+      </c>
+      <c r="E184" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D185" t="n">
+        <v>616</v>
+      </c>
+      <c r="E185" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>15843</v>
+      </c>
+      <c r="E186" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9154</v>
+      </c>
+      <c r="E187" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D188" t="n">
+        <v>81607</v>
+      </c>
+      <c r="E188" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E189" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3485</v>
+      </c>
+      <c r="E190" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>383</v>
+      </c>
+      <c r="C191" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D191" t="n">
+        <v>4898</v>
+      </c>
+      <c r="E191" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>385</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9</v>
+      </c>
+      <c r="D192" t="n">
+        <v>785</v>
+      </c>
+      <c r="E192" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>387</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>15906</v>
+      </c>
+      <c r="E193" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>389</v>
+      </c>
+      <c r="C194" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3334</v>
+      </c>
+      <c r="E194" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>391</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3431</v>
+      </c>
+      <c r="E195" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>393</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3113</v>
+      </c>
+      <c r="E196" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>395</v>
+      </c>
+      <c r="C197" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>10506</v>
+      </c>
+      <c r="E197" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>397</v>
+      </c>
+      <c r="C198" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D198" t="n">
+        <v>6848</v>
+      </c>
+      <c r="E198" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>399</v>
+      </c>
+      <c r="C199" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>661</v>
+      </c>
+      <c r="E199" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>401</v>
+      </c>
+      <c r="C200" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D200" t="n">
+        <v>468</v>
+      </c>
+      <c r="E200" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>403</v>
+      </c>
+      <c r="C201" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3725</v>
+      </c>
+      <c r="E201" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>405</v>
+      </c>
+      <c r="C202" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D202" t="n">
+        <v>348</v>
+      </c>
+      <c r="E202" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>407</v>
+      </c>
+      <c r="C203" t="n">
+        <v>9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>807</v>
+      </c>
+      <c r="E203" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>409</v>
+      </c>
+      <c r="C204" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4669</v>
+      </c>
+      <c r="E204" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>411</v>
+      </c>
+      <c r="C205" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>9802</v>
+      </c>
+      <c r="E205" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>413</v>
+      </c>
+      <c r="C206" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>785</v>
+      </c>
+      <c r="E206" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>415</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>10613</v>
+      </c>
+      <c r="E207" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>417</v>
+      </c>
+      <c r="C208" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D208" t="n">
+        <v>22929</v>
+      </c>
+      <c r="E208" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>419</v>
+      </c>
+      <c r="C209" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D209" t="n">
+        <v>52811</v>
+      </c>
+      <c r="E209" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>421</v>
+      </c>
+      <c r="C210" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D210" t="n">
+        <v>19014</v>
+      </c>
+      <c r="E210" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>423</v>
+      </c>
+      <c r="C211" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3367</v>
+      </c>
+      <c r="E211" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>425</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D212" t="n">
+        <v>12686</v>
+      </c>
+      <c r="E212" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>427</v>
+      </c>
+      <c r="C213" t="n">
+        <v>9</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4760</v>
+      </c>
+      <c r="E213" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>429</v>
+      </c>
+      <c r="C214" t="n">
+        <v>9</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E214" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>431</v>
+      </c>
+      <c r="C215" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D215" t="n">
+        <v>11934</v>
+      </c>
+      <c r="E215" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>433</v>
+      </c>
+      <c r="C216" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D216" t="n">
+        <v>30</v>
+      </c>
+      <c r="E216" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>435</v>
+      </c>
+      <c r="C217" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1822</v>
+      </c>
+      <c r="E217" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>437</v>
+      </c>
+      <c r="C218" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D218" t="n">
+        <v>214583</v>
+      </c>
+      <c r="E218" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>439</v>
+      </c>
+      <c r="C219" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D219" t="n">
+        <v>9009</v>
+      </c>
+      <c r="E219" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>441</v>
+      </c>
+      <c r="C220" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2746</v>
+      </c>
+      <c r="E220" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>443</v>
+      </c>
+      <c r="C221" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>6439</v>
+      </c>
+      <c r="E221" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>445</v>
+      </c>
+      <c r="C222" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D222" t="n">
+        <v>6638</v>
+      </c>
+      <c r="E222" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>447</v>
+      </c>
+      <c r="C223" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2745</v>
+      </c>
+      <c r="E223" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>449</v>
+      </c>
+      <c r="C224" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D224" t="n">
+        <v>502</v>
+      </c>
+      <c r="E224" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>451</v>
+      </c>
+      <c r="C225" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D225" t="n">
+        <v>90265</v>
+      </c>
+      <c r="E225" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>453</v>
+      </c>
+      <c r="C226" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>3764</v>
+      </c>
+      <c r="E226" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>455</v>
+      </c>
+      <c r="C227" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>796</v>
+      </c>
+      <c r="E227" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>457</v>
+      </c>
+      <c r="C228" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D228" t="n">
+        <v>412</v>
+      </c>
+      <c r="E228" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>459</v>
+      </c>
+      <c r="C229" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D229" t="n">
+        <v>6127</v>
+      </c>
+      <c r="E229" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>461</v>
+      </c>
+      <c r="C230" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4185</v>
+      </c>
+      <c r="E230" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>463</v>
+      </c>
+      <c r="C231" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D231" t="n">
+        <v>101103</v>
+      </c>
+      <c r="E231" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>465</v>
+      </c>
+      <c r="C232" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D232" t="n">
+        <v>8091</v>
+      </c>
+      <c r="E232" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>467</v>
+      </c>
+      <c r="C233" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2984</v>
+      </c>
+      <c r="E233" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>469</v>
+      </c>
+      <c r="C234" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>11725</v>
+      </c>
+      <c r="E234" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>471</v>
+      </c>
+      <c r="C235" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3294</v>
+      </c>
+      <c r="E235" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>473</v>
+      </c>
+      <c r="C236" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D236" t="n">
+        <v>124539</v>
+      </c>
+      <c r="E236" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>475</v>
+      </c>
+      <c r="C237" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D237" t="n">
+        <v>41846</v>
+      </c>
+      <c r="E237" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>477</v>
+      </c>
+      <c r="C238" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E238" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>479</v>
+      </c>
+      <c r="C239" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D239" t="n">
+        <v>90109</v>
+      </c>
+      <c r="E239" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>481</v>
+      </c>
+      <c r="C240" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E240" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>483</v>
+      </c>
+      <c r="C241" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4906</v>
+      </c>
+      <c r="E241" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>485</v>
+      </c>
+      <c r="C242" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D242" t="n">
+        <v>734</v>
+      </c>
+      <c r="E242" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>487</v>
+      </c>
+      <c r="C243" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D243" t="n">
+        <v>101765</v>
+      </c>
+      <c r="E243" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>489</v>
+      </c>
+      <c r="C244" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>3795</v>
+      </c>
+      <c r="E244" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>491</v>
+      </c>
+      <c r="C245" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1827</v>
+      </c>
+      <c r="E245" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>493</v>
+      </c>
+      <c r="C246" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D246" t="n">
+        <v>166323</v>
+      </c>
+      <c r="E246" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>495</v>
+      </c>
+      <c r="C247" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D247" t="n">
+        <v>3916</v>
+      </c>
+      <c r="E247" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>497</v>
+      </c>
+      <c r="C248" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1422</v>
+      </c>
+      <c r="E248" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>499</v>
+      </c>
+      <c r="C249" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D249" t="n">
+        <v>9994</v>
+      </c>
+      <c r="E249" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>501</v>
+      </c>
+      <c r="C250" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E250" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>503</v>
+      </c>
+      <c r="C251" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D251" t="n">
+        <v>3952</v>
+      </c>
+      <c r="E251" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>505</v>
+      </c>
+      <c r="C252" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1761</v>
+      </c>
+      <c r="E252" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>507</v>
+      </c>
+      <c r="C253" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2224</v>
+      </c>
+      <c r="E253" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>509</v>
+      </c>
+      <c r="C254" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D254" t="n">
+        <v>335</v>
+      </c>
+      <c r="E254" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>511</v>
+      </c>
+      <c r="C255" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E255" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>513</v>
+      </c>
+      <c r="C256" t="n">
+        <v>9</v>
+      </c>
+      <c r="D256" t="n">
+        <v>91612</v>
+      </c>
+      <c r="E256" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>515</v>
+      </c>
+      <c r="C257" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>134</v>
+      </c>
+      <c r="E257" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>517</v>
+      </c>
+      <c r="C258" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D258" t="n">
+        <v>8308</v>
+      </c>
+      <c r="E258" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>519</v>
+      </c>
+      <c r="C259" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D259" t="n">
+        <v>4544</v>
+      </c>
+      <c r="E259" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>521</v>
+      </c>
+      <c r="C260" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D260" t="n">
+        <v>598</v>
+      </c>
+      <c r="E260" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>523</v>
+      </c>
+      <c r="C261" t="n">
+        <v>8</v>
+      </c>
+      <c r="D261" t="n">
+        <v>584</v>
+      </c>
+      <c r="E261" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>525</v>
+      </c>
+      <c r="C262" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D262" t="n">
+        <v>6179</v>
+      </c>
+      <c r="E262" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>527</v>
+      </c>
+      <c r="C263" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E263" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>529</v>
+      </c>
+      <c r="C264" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1885</v>
+      </c>
+      <c r="E264" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>531</v>
+      </c>
+      <c r="C265" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1788</v>
+      </c>
+      <c r="E265" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>533</v>
+      </c>
+      <c r="C266" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2902</v>
+      </c>
+      <c r="E266" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>535</v>
+      </c>
+      <c r="C267" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1355</v>
+      </c>
+      <c r="E267" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>537</v>
+      </c>
+      <c r="C268" t="n">
+        <v>9</v>
+      </c>
+      <c r="D268" t="n">
+        <v>953</v>
+      </c>
+      <c r="E268" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>539</v>
+      </c>
+      <c r="C269" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D269" t="n">
+        <v>9940</v>
+      </c>
+      <c r="E269" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>541</v>
+      </c>
+      <c r="C270" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D270" t="n">
+        <v>38443</v>
+      </c>
+      <c r="E270" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>543</v>
+      </c>
+      <c r="C271" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1192</v>
+      </c>
+      <c r="E271" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>545</v>
+      </c>
+      <c r="C272" t="n">
+        <v>9</v>
+      </c>
+      <c r="D272" t="n">
+        <v>5610</v>
+      </c>
+      <c r="E272" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>547</v>
+      </c>
+      <c r="C273" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D273" t="n">
+        <v>186</v>
+      </c>
+      <c r="E273" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>549</v>
+      </c>
+      <c r="C274" t="n">
+        <v>9</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2044</v>
+      </c>
+      <c r="E274" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>551</v>
+      </c>
+      <c r="C275" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D275" t="n">
+        <v>45060</v>
+      </c>
+      <c r="E275" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>553</v>
+      </c>
+      <c r="C276" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D276" t="n">
+        <v>277</v>
+      </c>
+      <c r="E276" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>555</v>
+      </c>
+      <c r="C277" t="n">
+        <v>8</v>
+      </c>
+      <c r="D277" t="n">
+        <v>166</v>
+      </c>
+      <c r="E277" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>557</v>
+      </c>
+      <c r="C278" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D278" t="n">
+        <v>66459</v>
+      </c>
+      <c r="E278" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>559</v>
+      </c>
+      <c r="C279" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D279" t="n">
+        <v>3481</v>
+      </c>
+      <c r="E279" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>561</v>
+      </c>
+      <c r="C280" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1793</v>
+      </c>
+      <c r="E280" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>563</v>
+      </c>
+      <c r="C281" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D281" t="n">
+        <v>8836</v>
+      </c>
+      <c r="E281" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>565</v>
+      </c>
+      <c r="C282" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1251</v>
+      </c>
+      <c r="E282" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>567</v>
+      </c>
+      <c r="C283" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D283" t="n">
+        <v>7902</v>
+      </c>
+      <c r="E283" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>569</v>
+      </c>
+      <c r="C284" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D284" t="n">
+        <v>23411</v>
+      </c>
+      <c r="E284" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>571</v>
+      </c>
+      <c r="C285" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D285" t="n">
+        <v>58393</v>
+      </c>
+      <c r="E285" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>573</v>
+      </c>
+      <c r="C286" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1097</v>
+      </c>
+      <c r="E286" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>575</v>
+      </c>
+      <c r="C287" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1280</v>
+      </c>
+      <c r="E287" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>577</v>
+      </c>
+      <c r="C288" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D288" t="n">
+        <v>135</v>
+      </c>
+      <c r="E288" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>579</v>
+      </c>
+      <c r="C289" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2618</v>
+      </c>
+      <c r="E289" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>581</v>
+      </c>
+      <c r="C290" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D290" t="n">
+        <v>5183</v>
+      </c>
+      <c r="E290" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>583</v>
+      </c>
+      <c r="C291" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1528</v>
+      </c>
+      <c r="E291" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>585</v>
+      </c>
+      <c r="C292" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D292" t="n">
+        <v>7555</v>
+      </c>
+      <c r="E292" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>587</v>
+      </c>
+      <c r="C293" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>6648</v>
+      </c>
+      <c r="E293" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>589</v>
+      </c>
+      <c r="C294" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>837</v>
+      </c>
+      <c r="E294" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>591</v>
+      </c>
+      <c r="C295" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1199</v>
+      </c>
+      <c r="E295" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>593</v>
+      </c>
+      <c r="C296" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D296" t="n">
+        <v>39610</v>
+      </c>
+      <c r="E296" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>595</v>
+      </c>
+      <c r="C297" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D297" t="n">
+        <v>30792</v>
+      </c>
+      <c r="E297" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>597</v>
+      </c>
+      <c r="C298" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D298" t="n">
+        <v>4034</v>
+      </c>
+      <c r="E298" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>599</v>
+      </c>
+      <c r="C299" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2864</v>
+      </c>
+      <c r="E299" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>601</v>
+      </c>
+      <c r="C300" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D300" t="n">
+        <v>74042</v>
+      </c>
+      <c r="E300" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>603</v>
+      </c>
+      <c r="C301" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D301" t="n">
+        <v>9845</v>
+      </c>
+      <c r="E301" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>605</v>
+      </c>
+      <c r="C302" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D302" t="n">
+        <v>44033</v>
+      </c>
+      <c r="E302" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>607</v>
+      </c>
+      <c r="C303" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>59289</v>
+      </c>
+      <c r="E303" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>609</v>
+      </c>
+      <c r="C304" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D304" t="n">
+        <v>22516</v>
+      </c>
+      <c r="E304" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>611</v>
+      </c>
+      <c r="C305" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2466</v>
+      </c>
+      <c r="E305" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>613</v>
+      </c>
+      <c r="C306" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D306" t="n">
+        <v>752</v>
+      </c>
+      <c r="E306" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>615</v>
+      </c>
+      <c r="C307" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D307" t="n">
+        <v>12343</v>
+      </c>
+      <c r="E307" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>617</v>
+      </c>
+      <c r="C308" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D308" t="n">
+        <v>325</v>
+      </c>
+      <c r="E308" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>619</v>
+      </c>
+      <c r="C309" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D309" t="n">
+        <v>4793</v>
+      </c>
+      <c r="E309" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>621</v>
+      </c>
+      <c r="C310" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D310" t="n">
+        <v>8193</v>
+      </c>
+      <c r="E310" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>623</v>
+      </c>
+      <c r="C311" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D311" t="n">
+        <v>39451</v>
+      </c>
+      <c r="E311" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>625</v>
+      </c>
+      <c r="C312" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2165</v>
+      </c>
+      <c r="E312" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>627</v>
+      </c>
+      <c r="C313" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D313" t="n">
+        <v>22868</v>
+      </c>
+      <c r="E313" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>629</v>
+      </c>
+      <c r="C314" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D314" t="n">
+        <v>5419</v>
+      </c>
+      <c r="E314" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>631</v>
+      </c>
+      <c r="C315" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D315" t="n">
+        <v>9381</v>
+      </c>
+      <c r="E315" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>633</v>
+      </c>
+      <c r="C316" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2837</v>
+      </c>
+      <c r="E316" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>635</v>
+      </c>
+      <c r="C317" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>71</v>
+      </c>
+      <c r="E317" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>637</v>
+      </c>
+      <c r="C318" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D318" t="n">
+        <v>10857</v>
+      </c>
+      <c r="E318" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>639</v>
+      </c>
+      <c r="C319" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D319" t="n">
+        <v>477</v>
+      </c>
+      <c r="E319" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>641</v>
+      </c>
+      <c r="C320" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D320" t="n">
+        <v>5278</v>
+      </c>
+      <c r="E320" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>643</v>
+      </c>
+      <c r="C321" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2343</v>
+      </c>
+      <c r="E321" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>645</v>
+      </c>
+      <c r="C322" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E322" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>647</v>
+      </c>
+      <c r="C323" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D323" t="n">
+        <v>16098</v>
+      </c>
+      <c r="E323" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>649</v>
+      </c>
+      <c r="C324" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D324" t="n">
+        <v>32131</v>
+      </c>
+      <c r="E324" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>651</v>
+      </c>
+      <c r="C325" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E325" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>653</v>
+      </c>
+      <c r="C326" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D326" t="n">
+        <v>25439</v>
+      </c>
+      <c r="E326" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>655</v>
+      </c>
+      <c r="C327" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D327" t="n">
+        <v>544</v>
+      </c>
+      <c r="E327" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>657</v>
+      </c>
+      <c r="C328" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>9177</v>
+      </c>
+      <c r="E328" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>659</v>
+      </c>
+      <c r="C329" t="n">
+        <v>8</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1664</v>
+      </c>
+      <c r="E329" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>661</v>
+      </c>
+      <c r="C330" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2340</v>
+      </c>
+      <c r="E330" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>663</v>
+      </c>
+      <c r="C331" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D331" t="n">
+        <v>13700</v>
+      </c>
+      <c r="E331" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>665</v>
+      </c>
+      <c r="C332" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D332" t="n">
+        <v>6785</v>
+      </c>
+      <c r="E332" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>667</v>
+      </c>
+      <c r="C333" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D333" t="n">
+        <v>14043</v>
+      </c>
+      <c r="E333" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>669</v>
+      </c>
+      <c r="C334" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1730</v>
+      </c>
+      <c r="E334" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>671</v>
+      </c>
+      <c r="C335" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D335" t="n">
+        <v>7457</v>
+      </c>
+      <c r="E335" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>673</v>
+      </c>
+      <c r="C336" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D336" t="n">
+        <v>3641</v>
+      </c>
+      <c r="E336" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>675</v>
+      </c>
+      <c r="C337" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D337" t="n">
+        <v>9410</v>
+      </c>
+      <c r="E337" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>677</v>
+      </c>
+      <c r="C338" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D338" t="n">
+        <v>469</v>
+      </c>
+      <c r="E338" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>679</v>
+      </c>
+      <c r="C339" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D339" t="n">
+        <v>17969</v>
+      </c>
+      <c r="E339" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>681</v>
+      </c>
+      <c r="C340" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D340" t="n">
+        <v>49953</v>
+      </c>
+      <c r="E340" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>683</v>
+      </c>
+      <c r="C341" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D341" t="n">
+        <v>6013</v>
+      </c>
+      <c r="E341" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>685</v>
+      </c>
+      <c r="C342" t="n">
+        <v>9</v>
+      </c>
+      <c r="D342" t="n">
+        <v>3094</v>
+      </c>
+      <c r="E342" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>687</v>
+      </c>
+      <c r="C343" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D343" t="n">
+        <v>15234</v>
+      </c>
+      <c r="E343" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>689</v>
+      </c>
+      <c r="C344" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D344" t="n">
+        <v>197</v>
+      </c>
+      <c r="E344" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>691</v>
+      </c>
+      <c r="C345" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D345" t="n">
+        <v>19857</v>
+      </c>
+      <c r="E345" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>693</v>
+      </c>
+      <c r="C346" t="n">
+        <v>9</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E346" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>695</v>
+      </c>
+      <c r="C347" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D347" t="n">
+        <v>2721</v>
+      </c>
+      <c r="E347" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>697</v>
+      </c>
+      <c r="C348" t="n">
+        <v>9</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1564</v>
+      </c>
+      <c r="E348" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>699</v>
+      </c>
+      <c r="C349" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2084</v>
+      </c>
+      <c r="E349" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>701</v>
+      </c>
+      <c r="C350" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D350" t="n">
+        <v>3199</v>
+      </c>
+      <c r="E350" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>703</v>
+      </c>
+      <c r="C351" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1157</v>
+      </c>
+      <c r="E351" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>705</v>
+      </c>
+      <c r="C352" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D352" t="n">
+        <v>2320</v>
+      </c>
+      <c r="E352" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>707</v>
+      </c>
+      <c r="C353" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D353" t="n">
+        <v>615</v>
+      </c>
+      <c r="E353" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>709</v>
+      </c>
+      <c r="C354" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D354" t="n">
+        <v>4015</v>
+      </c>
+      <c r="E354" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>711</v>
+      </c>
+      <c r="C355" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1697</v>
+      </c>
+      <c r="E355" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>713</v>
+      </c>
+      <c r="C356" t="n">
+        <v>8</v>
+      </c>
+      <c r="D356" t="n">
+        <v>24511</v>
+      </c>
+      <c r="E356" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>715</v>
+      </c>
+      <c r="C357" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1407</v>
+      </c>
+      <c r="E357" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>717</v>
+      </c>
+      <c r="C358" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D358" t="n">
+        <v>4897</v>
+      </c>
+      <c r="E358" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>719</v>
+      </c>
+      <c r="C359" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D359" t="n">
+        <v>122653</v>
+      </c>
+      <c r="E359" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>721</v>
+      </c>
+      <c r="C360" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D360" t="n">
+        <v>788</v>
+      </c>
+      <c r="E360" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>723</v>
+      </c>
+      <c r="C361" t="n">
+        <v>9</v>
+      </c>
+      <c r="D361" t="n">
+        <v>4714</v>
+      </c>
+      <c r="E361" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>725</v>
+      </c>
+      <c r="C362" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2988</v>
+      </c>
+      <c r="E362" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>727</v>
+      </c>
+      <c r="C363" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D363" t="n">
+        <v>171948</v>
+      </c>
+      <c r="E363" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>729</v>
+      </c>
+      <c r="C364" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1949</v>
+      </c>
+      <c r="E364" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>731</v>
+      </c>
+      <c r="C365" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D365" t="n">
+        <v>384</v>
+      </c>
+      <c r="E365" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>733</v>
+      </c>
+      <c r="C366" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D366" t="n">
+        <v>213</v>
+      </c>
+      <c r="E366" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>735</v>
+      </c>
+      <c r="C367" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1895</v>
+      </c>
+      <c r="E367" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>737</v>
+      </c>
+      <c r="C368" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>4149</v>
+      </c>
+      <c r="E368" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>739</v>
+      </c>
+      <c r="C369" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D369" t="n">
+        <v>60473</v>
+      </c>
+      <c r="E369" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>741</v>
+      </c>
+      <c r="C370" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D370" t="n">
+        <v>5100</v>
+      </c>
+      <c r="E370" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>743</v>
+      </c>
+      <c r="C371" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D371" t="n">
+        <v>7745</v>
+      </c>
+      <c r="E371" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>745</v>
+      </c>
+      <c r="C372" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D372" t="n">
+        <v>29296</v>
+      </c>
+      <c r="E372" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>747</v>
+      </c>
+      <c r="C373" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D373" t="n">
+        <v>2740</v>
+      </c>
+      <c r="E373" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>749</v>
+      </c>
+      <c r="C374" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D374" t="n">
+        <v>179</v>
+      </c>
+      <c r="E374" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>751</v>
+      </c>
+      <c r="C375" t="n">
+        <v>8</v>
+      </c>
+      <c r="D375" t="n">
+        <v>8230</v>
+      </c>
+      <c r="E375" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>753</v>
+      </c>
+      <c r="C376" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D376" t="n">
+        <v>8277</v>
+      </c>
+      <c r="E376" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>755</v>
+      </c>
+      <c r="C377" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D377" t="n">
+        <v>437</v>
+      </c>
+      <c r="E377" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>757</v>
+      </c>
+      <c r="C378" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D378" t="n">
+        <v>27440</v>
+      </c>
+      <c r="E378" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>759</v>
+      </c>
+      <c r="C379" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1939</v>
+      </c>
+      <c r="E379" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>761</v>
+      </c>
+      <c r="C380" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D380" t="n">
+        <v>6669</v>
+      </c>
+      <c r="E380" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>763</v>
+      </c>
+      <c r="C381" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D381" t="n">
+        <v>40944</v>
+      </c>
+      <c r="E381" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>765</v>
+      </c>
+      <c r="C382" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D382" t="n">
+        <v>487</v>
+      </c>
+      <c r="E382" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>767</v>
+      </c>
+      <c r="C383" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D383" t="n">
+        <v>5907</v>
+      </c>
+      <c r="E383" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>769</v>
+      </c>
+      <c r="C384" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1236</v>
+      </c>
+      <c r="E384" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>771</v>
+      </c>
+      <c r="C385" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D385" t="n">
+        <v>10899</v>
+      </c>
+      <c r="E385" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>773</v>
+      </c>
+      <c r="C386" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2556</v>
+      </c>
+      <c r="E386" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>775</v>
+      </c>
+      <c r="C387" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D387" t="n">
+        <v>5528</v>
+      </c>
+      <c r="E387" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>777</v>
+      </c>
+      <c r="C388" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D388" t="n">
+        <v>2888</v>
+      </c>
+      <c r="E388" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>779</v>
+      </c>
+      <c r="C389" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D389" t="n">
+        <v>3636</v>
+      </c>
+      <c r="E389" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>781</v>
+      </c>
+      <c r="C390" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D390" t="n">
+        <v>158</v>
+      </c>
+      <c r="E390" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>783</v>
+      </c>
+      <c r="C391" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D391" t="n">
+        <v>14709</v>
+      </c>
+      <c r="E391" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>785</v>
+      </c>
+      <c r="C392" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D392" t="n">
+        <v>41625</v>
+      </c>
+      <c r="E392" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>787</v>
+      </c>
+      <c r="C393" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D393" t="n">
+        <v>4964</v>
+      </c>
+      <c r="E393" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>789</v>
+      </c>
+      <c r="C394" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D394" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E394" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>791</v>
+      </c>
+      <c r="C395" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D395" t="n">
+        <v>20956</v>
+      </c>
+      <c r="E395" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>793</v>
+      </c>
+      <c r="C396" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D396" t="n">
+        <v>2695</v>
+      </c>
+      <c r="E396" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>795</v>
+      </c>
+      <c r="C397" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D397" t="n">
+        <v>9106</v>
+      </c>
+      <c r="E397" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>797</v>
+      </c>
+      <c r="C398" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D398" t="n">
+        <v>70496</v>
+      </c>
+      <c r="E398" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>799</v>
+      </c>
+      <c r="C399" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D399" t="n">
+        <v>4470</v>
+      </c>
+      <c r="E399" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
